--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Philippe_François_Deleuze/Joseph_Philippe_François_Deleuze.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Philippe_François_Deleuze/Joseph_Philippe_François_Deleuze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Philippe_Fran%C3%A7ois_Deleuze</t>
+          <t>Joseph_Philippe_François_Deleuze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Philippe François Deleuze est un naturaliste français, né le 12 avril 1753 à Sisteron et mort le 29 octobre 1835[1] à Paris (ancien 10e arrondissement).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Philippe François Deleuze est un naturaliste français, né le 12 avril 1753 à Sisteron et mort le 29 octobre 1835 à Paris (ancien 10e arrondissement).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Philippe_Fran%C3%A7ois_Deleuze</t>
+          <t>Joseph_Philippe_François_Deleuze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Philippe François Deleuze naît le 12 avril 1753 à Sisteron, en Haute Provence, et est baptisé le même jour[2]. Il est le fils de Joseph Deleuze, ancien officier d'infanterie, et de son épouse, Élisabeth de Brunicard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Philippe François Deleuze naît le 12 avril 1753 à Sisteron, en Haute Provence, et est baptisé le même jour. Il est le fils de Joseph Deleuze, ancien officier d'infanterie, et de son épouse, Élisabeth de Brunicard.
 Il étudie à Paris et devient naturaliste-assistant au Muséum national d'histoire naturelle en 1795. Il collabore avec Antoine Laurent de Jussieu (1748-1836). Aide-naturaliste, puis bibliothécaire du Muséum d'histoire naturelle, il est surtout connu pour avoir été partisan de la théorie du magnétisme animal et pour avoir suggéré que l’Académie des sciences l’étudie.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Philippe_Fran%C3%A7ois_Deleuze</t>
+          <t>Joseph_Philippe_François_Deleuze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Leuzea a été dédié à Deleuze par le botaniste suisse Augustin Pyrame de Candolle.
 L'IPNI lui attribue une abréviation en botanique, sans plus de précisions.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_Philippe_Fran%C3%A7ois_Deleuze</t>
+          <t>Joseph_Philippe_François_Deleuze</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1804 : Notice historique sur André Michaux, Annales du Muséum National d'Histoire Naturelle, tome 3, An XII.
 1807 : Éloge historique de François Péron, contenu dans le Voyage de découvertes aux terres australes, exécuté sur les corvettes le Géographe, le Naturaliste et la goëlette le Casuarina, pendant les années 1800, 1801, 1802, 1803 et 1804, 3 volumes (1807-1816), Impr. impériale (Paris). Troisième volume lire en ligne sur Gallica
